--- a/Code/Results/Cases/Case_3_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013118578427861</v>
+        <v>1.038550885001746</v>
       </c>
       <c r="D2">
-        <v>1.02839200968772</v>
+        <v>1.041959221025497</v>
       </c>
       <c r="E2">
-        <v>1.026033388693694</v>
+        <v>1.047458027391036</v>
       </c>
       <c r="F2">
-        <v>1.033112169885515</v>
+        <v>1.059024497997742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04780051664376</v>
+        <v>1.040383642019615</v>
       </c>
       <c r="J2">
-        <v>1.034913871837649</v>
+        <v>1.043647710921769</v>
       </c>
       <c r="K2">
-        <v>1.039469477102189</v>
+        <v>1.044737261897528</v>
       </c>
       <c r="L2">
-        <v>1.037141570610696</v>
+        <v>1.050220609375033</v>
       </c>
       <c r="M2">
-        <v>1.044128696909543</v>
+        <v>1.061755130604798</v>
       </c>
       <c r="N2">
-        <v>1.036383568241945</v>
+        <v>1.045129810379344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017168652738286</v>
+        <v>1.039411902332398</v>
       </c>
       <c r="D3">
-        <v>1.031362075371803</v>
+        <v>1.042610888768261</v>
       </c>
       <c r="E3">
-        <v>1.029535196773131</v>
+        <v>1.048257099019398</v>
       </c>
       <c r="F3">
-        <v>1.037251798541551</v>
+        <v>1.059982196274657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048987826339322</v>
+        <v>1.040590834075739</v>
       </c>
       <c r="J3">
-        <v>1.037201978937776</v>
+        <v>1.044154011343644</v>
       </c>
       <c r="K3">
-        <v>1.041608802237325</v>
+        <v>1.045200080920532</v>
       </c>
       <c r="L3">
-        <v>1.039803617410575</v>
+        <v>1.050831562315867</v>
       </c>
       <c r="M3">
-        <v>1.04742922998607</v>
+        <v>1.062526613633087</v>
       </c>
       <c r="N3">
-        <v>1.038674924716598</v>
+        <v>1.045636829805891</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019740357389588</v>
+        <v>1.039969622311174</v>
       </c>
       <c r="D4">
-        <v>1.033250654954035</v>
+        <v>1.043033014547638</v>
       </c>
       <c r="E4">
-        <v>1.031764351727022</v>
+        <v>1.048775086412755</v>
       </c>
       <c r="F4">
-        <v>1.039887094490458</v>
+        <v>1.060603117844128</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049733706213448</v>
+        <v>1.040724028327045</v>
       </c>
       <c r="J4">
-        <v>1.03865223605887</v>
+        <v>1.044481545763754</v>
       </c>
       <c r="K4">
-        <v>1.042963676564111</v>
+        <v>1.045499322622235</v>
       </c>
       <c r="L4">
-        <v>1.041493947816993</v>
+        <v>1.051227167799729</v>
       </c>
       <c r="M4">
-        <v>1.049526820068299</v>
+        <v>1.063026415651969</v>
       </c>
       <c r="N4">
-        <v>1.04012724136915</v>
+        <v>1.045964829362446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02081015250752</v>
+        <v>1.040204226179406</v>
       </c>
       <c r="D5">
-        <v>1.034036874028748</v>
+        <v>1.043210583073931</v>
       </c>
       <c r="E5">
-        <v>1.03269296198866</v>
+        <v>1.048993070394696</v>
       </c>
       <c r="F5">
-        <v>1.040984938880974</v>
+        <v>1.060864445246245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05004202395112</v>
+        <v>1.040779813559424</v>
       </c>
       <c r="J5">
-        <v>1.039254863501007</v>
+        <v>1.044619221916631</v>
       </c>
       <c r="K5">
-        <v>1.043526401716453</v>
+        <v>1.045625066836298</v>
       </c>
       <c r="L5">
-        <v>1.042197073589096</v>
+        <v>1.05139354559542</v>
       </c>
       <c r="M5">
-        <v>1.050399802793536</v>
+        <v>1.063236674773808</v>
       </c>
       <c r="N5">
-        <v>1.040730724611377</v>
+        <v>1.046102701031252</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020989120802759</v>
+        <v>1.040243625273822</v>
       </c>
       <c r="D6">
-        <v>1.034168436050712</v>
+        <v>1.043240403828728</v>
       </c>
       <c r="E6">
-        <v>1.032848387417846</v>
+        <v>1.049029683838958</v>
       </c>
       <c r="F6">
-        <v>1.041168692919317</v>
+        <v>1.060908340338797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050093487084324</v>
+        <v>1.040789167833247</v>
       </c>
       <c r="J6">
-        <v>1.039355638729542</v>
+        <v>1.044642337181775</v>
       </c>
       <c r="K6">
-        <v>1.043620488247866</v>
+        <v>1.045646176466507</v>
       </c>
       <c r="L6">
-        <v>1.042314698489131</v>
+        <v>1.051421484947311</v>
       </c>
       <c r="M6">
-        <v>1.050545869480519</v>
+        <v>1.063271986509462</v>
       </c>
       <c r="N6">
-        <v>1.040831642952296</v>
+        <v>1.046125849122724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019754696157983</v>
+        <v>1.039972756557599</v>
       </c>
       <c r="D7">
-        <v>1.033261190577502</v>
+        <v>1.043035386809198</v>
       </c>
       <c r="E7">
-        <v>1.03177679301425</v>
+        <v>1.048777998254852</v>
       </c>
       <c r="F7">
-        <v>1.039901802931096</v>
+        <v>1.060606608568546</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049737846457319</v>
+        <v>1.040724774556585</v>
       </c>
       <c r="J7">
-        <v>1.03866031588901</v>
+        <v>1.044483385476614</v>
       </c>
       <c r="K7">
-        <v>1.042971222466157</v>
+        <v>1.045501003048016</v>
       </c>
       <c r="L7">
-        <v>1.041503372162996</v>
+        <v>1.051229390693245</v>
       </c>
       <c r="M7">
-        <v>1.049538519306139</v>
+        <v>1.06302922458718</v>
       </c>
       <c r="N7">
-        <v>1.040135332673577</v>
+        <v>1.04596667168791</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014497688054865</v>
+        <v>1.038841747995815</v>
       </c>
       <c r="D8">
-        <v>1.029402778133778</v>
+        <v>1.042179360370559</v>
       </c>
       <c r="E8">
-        <v>1.027224617306158</v>
+        <v>1.047727882867548</v>
       </c>
       <c r="F8">
-        <v>1.034520354115111</v>
+        <v>1.059347901579132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048206476981332</v>
+        <v>1.040453843876437</v>
       </c>
       <c r="J8">
-        <v>1.03569354165549</v>
+        <v>1.043818832513397</v>
       </c>
       <c r="K8">
-        <v>1.040198671272641</v>
+        <v>1.044893721319769</v>
       </c>
       <c r="L8">
-        <v>1.038048021419703</v>
+        <v>1.050427025408687</v>
       </c>
       <c r="M8">
-        <v>1.045252178342504</v>
+        <v>1.062015731576987</v>
       </c>
       <c r="N8">
-        <v>1.037164345280351</v>
+        <v>1.045301174983259</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00484155924261</v>
+        <v>1.036853305588825</v>
       </c>
       <c r="D9">
-        <v>1.022338697629845</v>
+        <v>1.040674475766044</v>
       </c>
       <c r="E9">
-        <v>1.018908868112321</v>
+        <v>1.045884677198996</v>
       </c>
       <c r="F9">
-        <v>1.02468988878529</v>
+        <v>1.0571393701919</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045331345705909</v>
+        <v>1.039969773805326</v>
       </c>
       <c r="J9">
-        <v>1.03022450041381</v>
+        <v>1.042647276385409</v>
       </c>
       <c r="K9">
-        <v>1.035079451398276</v>
+        <v>1.043821879827038</v>
       </c>
       <c r="L9">
-        <v>1.031702434554193</v>
+        <v>1.04901534350123</v>
       </c>
       <c r="M9">
-        <v>1.037394699242476</v>
+        <v>1.060234496357663</v>
       </c>
       <c r="N9">
-        <v>1.0316875373728</v>
+        <v>1.044127955111191</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.998114184275517</v>
+        <v>1.035530816401335</v>
       </c>
       <c r="D10">
-        <v>1.017435790487503</v>
+        <v>1.039673699568495</v>
       </c>
       <c r="E10">
-        <v>1.0131483983557</v>
+        <v>1.044660835036937</v>
       </c>
       <c r="F10">
-        <v>1.017879109891821</v>
+        <v>1.055673485694443</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043288145437386</v>
+        <v>1.039642625287893</v>
       </c>
       <c r="J10">
-        <v>1.026402823230491</v>
+        <v>1.041865952927199</v>
       </c>
       <c r="K10">
-        <v>1.031497214229896</v>
+        <v>1.043106223592916</v>
       </c>
       <c r="L10">
-        <v>1.027284244288121</v>
+        <v>1.048075772207779</v>
       </c>
       <c r="M10">
-        <v>1.03193288457934</v>
+        <v>1.059050235073165</v>
       </c>
       <c r="N10">
-        <v>1.027860432969528</v>
+        <v>1.04334552208405</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.99512615814885</v>
+        <v>1.034958926781765</v>
       </c>
       <c r="D11">
-        <v>1.015263226890644</v>
+        <v>1.039240961341359</v>
       </c>
       <c r="E11">
-        <v>1.010598181446795</v>
+        <v>1.044132095628839</v>
       </c>
       <c r="F11">
-        <v>1.014863396784021</v>
+        <v>1.055040297482303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042371588977142</v>
+        <v>1.039499922753049</v>
       </c>
       <c r="J11">
-        <v>1.02470310972745</v>
+        <v>1.041527578017944</v>
       </c>
       <c r="K11">
-        <v>1.029902929349659</v>
+        <v>1.042796091550279</v>
       </c>
       <c r="L11">
-        <v>1.02532296146225</v>
+        <v>1.047669311656994</v>
       </c>
       <c r="M11">
-        <v>1.029510351176378</v>
+        <v>1.058538221563895</v>
       </c>
       <c r="N11">
-        <v>1.026158305678353</v>
+        <v>1.043006666643612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9940044322464667</v>
+        <v>1.034746616685243</v>
       </c>
       <c r="D12">
-        <v>1.0144484605396</v>
+        <v>1.039080315577475</v>
       </c>
       <c r="E12">
-        <v>1.009642111849779</v>
+        <v>1.043935879092734</v>
       </c>
       <c r="F12">
-        <v>1.013732712965114</v>
+        <v>1.054805337697387</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042026188337863</v>
+        <v>1.039446760322833</v>
       </c>
       <c r="J12">
-        <v>1.024064720757137</v>
+        <v>1.041401883159484</v>
       </c>
       <c r="K12">
-        <v>1.029303988933926</v>
+        <v>1.042680858597131</v>
       </c>
       <c r="L12">
-        <v>1.024586886649513</v>
+        <v>1.047518392531552</v>
       </c>
       <c r="M12">
-        <v>1.028601461765922</v>
+        <v>1.058348155563379</v>
       </c>
       <c r="N12">
-        <v>1.025519010122477</v>
+        <v>1.042880793284036</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.994245591552038</v>
+        <v>1.034792152686536</v>
       </c>
       <c r="D13">
-        <v>1.014623588270779</v>
+        <v>1.039114770427435</v>
       </c>
       <c r="E13">
-        <v>1.009847597307188</v>
+        <v>1.043977959996093</v>
       </c>
       <c r="F13">
-        <v>1.013975732738243</v>
+        <v>1.054855726729089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04210050478375</v>
+        <v>1.039458170909433</v>
       </c>
       <c r="J13">
-        <v>1.024201980832555</v>
+        <v>1.041428845447205</v>
       </c>
       <c r="K13">
-        <v>1.029432773726353</v>
+        <v>1.042705578071556</v>
       </c>
       <c r="L13">
-        <v>1.024745125121374</v>
+        <v>1.047550762531281</v>
       </c>
       <c r="M13">
-        <v>1.028796838122786</v>
+        <v>1.058388919973837</v>
       </c>
       <c r="N13">
-        <v>1.025656465122946</v>
+        <v>1.042907793861298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9950336808756751</v>
+        <v>1.034941374805077</v>
       </c>
       <c r="D14">
-        <v>1.015196038736898</v>
+        <v>1.039227680416179</v>
       </c>
       <c r="E14">
-        <v>1.010519334508566</v>
+        <v>1.044115872610268</v>
       </c>
       <c r="F14">
-        <v>1.014770151626114</v>
+        <v>1.055020870839283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042343140051618</v>
+        <v>1.039495531515782</v>
       </c>
       <c r="J14">
-        <v>1.024650485664836</v>
+        <v>1.041517188184938</v>
       </c>
       <c r="K14">
-        <v>1.02985356009923</v>
+        <v>1.0427865670881</v>
       </c>
       <c r="L14">
-        <v>1.025262273626027</v>
+        <v>1.047656835435559</v>
       </c>
       <c r="M14">
-        <v>1.029435409217976</v>
+        <v>1.058522508220552</v>
       </c>
       <c r="N14">
-        <v>1.026105606883534</v>
+        <v>1.042996262055851</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9955176622277817</v>
+        <v>1.035033330782124</v>
       </c>
       <c r="D15">
-        <v>1.015547703248882</v>
+        <v>1.039297260291242</v>
       </c>
       <c r="E15">
-        <v>1.010932034548933</v>
+        <v>1.044200869134774</v>
       </c>
       <c r="F15">
-        <v>1.01525821045635</v>
+        <v>1.055122652702422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042491974439497</v>
+        <v>1.039518529919486</v>
       </c>
       <c r="J15">
-        <v>1.024925882381142</v>
+        <v>1.041571618122179</v>
       </c>
       <c r="K15">
-        <v>1.030111917446761</v>
+        <v>1.042836462345392</v>
       </c>
       <c r="L15">
-        <v>1.025579893007562</v>
+        <v>1.047722198233774</v>
       </c>
       <c r="M15">
-        <v>1.029827641729306</v>
+        <v>1.05860483211113</v>
       </c>
       <c r="N15">
-        <v>1.026381394694764</v>
+        <v>1.043050769289847</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9983108613012217</v>
+        <v>1.03556878690331</v>
       </c>
       <c r="D16">
-        <v>1.017578904064319</v>
+        <v>1.039702431857219</v>
       </c>
       <c r="E16">
-        <v>1.013316435935202</v>
+        <v>1.044695950995146</v>
       </c>
       <c r="F16">
-        <v>1.018077806989491</v>
+        <v>1.055715541102799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043348289424159</v>
+        <v>1.0396520740226</v>
       </c>
       <c r="J16">
-        <v>1.026514656919654</v>
+        <v>1.041888408660572</v>
       </c>
       <c r="K16">
-        <v>1.031602089911429</v>
+        <v>1.043126800907305</v>
       </c>
       <c r="L16">
-        <v>1.027413365498396</v>
+        <v>1.048102755775715</v>
       </c>
       <c r="M16">
-        <v>1.032092413647187</v>
+        <v>1.059084232274436</v>
       </c>
       <c r="N16">
-        <v>1.027972425475356</v>
+        <v>1.04336800970714</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000042484156351</v>
+        <v>1.035904868055733</v>
       </c>
       <c r="D17">
-        <v>1.018839522533041</v>
+        <v>1.039956748286822</v>
       </c>
       <c r="E17">
-        <v>1.014796862693831</v>
+        <v>1.045006823177405</v>
       </c>
       <c r="F17">
-        <v>1.019828285473547</v>
+        <v>1.05608786037891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043876794315972</v>
+        <v>1.039735563377356</v>
       </c>
       <c r="J17">
-        <v>1.027499029858722</v>
+        <v>1.042087108640041</v>
       </c>
       <c r="K17">
-        <v>1.032525097796883</v>
+        <v>1.043308857007616</v>
       </c>
       <c r="L17">
-        <v>1.028550329815028</v>
+        <v>1.048341572146026</v>
       </c>
       <c r="M17">
-        <v>1.033497361125761</v>
+        <v>1.059385157076463</v>
       </c>
       <c r="N17">
-        <v>1.028958196336907</v>
+        <v>1.043566991863373</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001045311485507</v>
+        <v>1.036100971440642</v>
       </c>
       <c r="D18">
-        <v>1.019570060348916</v>
+        <v>1.04010514496847</v>
       </c>
       <c r="E18">
-        <v>1.015655006255693</v>
+        <v>1.045188264590474</v>
       </c>
       <c r="F18">
-        <v>1.020842919784378</v>
+        <v>1.056305177297146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044182002288884</v>
+        <v>1.03978416042752</v>
       </c>
       <c r="J18">
-        <v>1.028068886293858</v>
+        <v>1.042203001427669</v>
       </c>
       <c r="K18">
-        <v>1.03305932807828</v>
+        <v>1.043415023226667</v>
       </c>
       <c r="L18">
-        <v>1.029208876688828</v>
+        <v>1.04848090627167</v>
       </c>
       <c r="M18">
-        <v>1.034311321148501</v>
+        <v>1.059560756525535</v>
       </c>
       <c r="N18">
-        <v>1.029528862033544</v>
+        <v>1.043683049232051</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00138604528474</v>
+        <v>1.036167849954015</v>
       </c>
       <c r="D19">
-        <v>1.019818357310727</v>
+        <v>1.040155754224866</v>
       </c>
       <c r="E19">
-        <v>1.015946713143478</v>
+        <v>1.04525015086599</v>
       </c>
       <c r="F19">
-        <v>1.021187814901416</v>
+        <v>1.056379302035986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044285556215451</v>
+        <v>1.039800713635233</v>
       </c>
       <c r="J19">
-        <v>1.028262469909587</v>
+        <v>1.042242516896682</v>
       </c>
       <c r="K19">
-        <v>1.033240791701996</v>
+        <v>1.04345121905296</v>
       </c>
       <c r="L19">
-        <v>1.029432649312165</v>
+        <v>1.048528421771586</v>
       </c>
       <c r="M19">
-        <v>1.034587935868901</v>
+        <v>1.059620644092637</v>
       </c>
       <c r="N19">
-        <v>1.029722720560212</v>
+        <v>1.043722620817563</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998574460282453</v>
+        <v>1.035868802174251</v>
       </c>
       <c r="D20">
-        <v>1.018704764746675</v>
+        <v>1.039929456507693</v>
       </c>
       <c r="E20">
-        <v>1.014638584640962</v>
+        <v>1.044973457634509</v>
       </c>
       <c r="F20">
-        <v>1.019641140236812</v>
+        <v>1.056047898580294</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043820408430678</v>
+        <v>1.039726616189282</v>
       </c>
       <c r="J20">
-        <v>1.027393863998151</v>
+        <v>1.042065790578222</v>
       </c>
       <c r="K20">
-        <v>1.032426498373416</v>
+        <v>1.043289326587417</v>
       </c>
       <c r="L20">
-        <v>1.028428825022559</v>
+        <v>1.048315945616687</v>
       </c>
       <c r="M20">
-        <v>1.033347197610917</v>
+        <v>1.05935286291393</v>
       </c>
       <c r="N20">
-        <v>1.028852881128751</v>
+        <v>1.04354564352746</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9948019397919172</v>
+        <v>1.034897429419448</v>
       </c>
       <c r="D21">
-        <v>1.01502768385828</v>
+        <v>1.039194428672386</v>
       </c>
       <c r="E21">
-        <v>1.010321771117416</v>
+        <v>1.04407525577763</v>
       </c>
       <c r="F21">
-        <v>1.01453650952437</v>
+        <v>1.054972233527472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042271828075387</v>
+        <v>1.039484534059293</v>
       </c>
       <c r="J21">
-        <v>1.024518608949114</v>
+        <v>1.041491173644107</v>
       </c>
       <c r="K21">
-        <v>1.029729837630324</v>
+        <v>1.042762718828481</v>
       </c>
       <c r="L21">
-        <v>1.025110197910235</v>
+        <v>1.047625597985683</v>
       </c>
       <c r="M21">
-        <v>1.029247619253658</v>
+        <v>1.058483166525006</v>
       </c>
       <c r="N21">
-        <v>1.025973542887749</v>
+        <v>1.042970210571389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9915545325044924</v>
+        <v>1.034287355884106</v>
       </c>
       <c r="D22">
-        <v>1.012670568546088</v>
+        <v>1.038732823391668</v>
       </c>
       <c r="E22">
-        <v>1.007556453336379</v>
+        <v>1.0435115676386</v>
       </c>
       <c r="F22">
-        <v>1.011265922539758</v>
+        <v>1.054297277872092</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041269439993001</v>
+        <v>1.039331423120282</v>
       </c>
       <c r="J22">
-        <v>1.02266993377165</v>
+        <v>1.041129847219045</v>
       </c>
       <c r="K22">
-        <v>1.027995129648847</v>
+        <v>1.042431411328752</v>
       </c>
       <c r="L22">
-        <v>1.022979687131818</v>
+        <v>1.047191887692833</v>
       </c>
       <c r="M22">
-        <v>1.026617454961138</v>
+        <v>1.057937040902904</v>
       </c>
       <c r="N22">
-        <v>1.024122242379486</v>
+        <v>1.042608371021359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9932827659431775</v>
+        <v>1.034610703691659</v>
       </c>
       <c r="D23">
-        <v>1.013924519317898</v>
+        <v>1.038977477732299</v>
       </c>
       <c r="E23">
-        <v>1.009027393147854</v>
+        <v>1.043810289577095</v>
       </c>
       <c r="F23">
-        <v>1.013005692059847</v>
+        <v>1.054654955369389</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04180360721747</v>
+        <v>1.039412675623546</v>
       </c>
       <c r="J23">
-        <v>1.023653929997856</v>
+        <v>1.041321396780063</v>
       </c>
       <c r="K23">
-        <v>1.028918541945811</v>
+        <v>1.042607063052827</v>
       </c>
       <c r="L23">
-        <v>1.024113393036125</v>
+        <v>1.047421773180317</v>
       </c>
       <c r="M23">
-        <v>1.028016883526747</v>
+        <v>1.058226486801495</v>
       </c>
       <c r="N23">
-        <v>1.025107635993199</v>
+        <v>1.042800192604724</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9999410789994317</v>
+        <v>1.03588509856846</v>
       </c>
       <c r="D24">
-        <v>1.018765670674715</v>
+        <v>1.039941788308268</v>
       </c>
       <c r="E24">
-        <v>1.014710120228246</v>
+        <v>1.044988533732238</v>
       </c>
       <c r="F24">
-        <v>1.019725722824843</v>
+        <v>1.056065955135585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043845896229308</v>
+        <v>1.039730659350218</v>
       </c>
       <c r="J24">
-        <v>1.027441397226885</v>
+        <v>1.042075423310015</v>
       </c>
       <c r="K24">
-        <v>1.032471063997468</v>
+        <v>1.043298151618</v>
       </c>
       <c r="L24">
-        <v>1.028483742077733</v>
+        <v>1.048327525029354</v>
       </c>
       <c r="M24">
-        <v>1.033415067075042</v>
+        <v>1.059367455024012</v>
       </c>
       <c r="N24">
-        <v>1.028900481860123</v>
+        <v>1.043555289938837</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007387009401596</v>
+        <v>1.03736681872841</v>
       </c>
       <c r="D25">
-        <v>1.024197867371804</v>
+        <v>1.041063094515514</v>
       </c>
       <c r="E25">
-        <v>1.021095429844333</v>
+        <v>1.046360322803875</v>
       </c>
       <c r="F25">
-        <v>1.027274827582982</v>
+        <v>1.057709195626519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046096333755874</v>
+        <v>1.040095702161124</v>
       </c>
       <c r="J25">
-        <v>1.031668303205933</v>
+        <v>1.042950207240976</v>
       </c>
       <c r="K25">
-        <v>1.036431806780161</v>
+        <v>1.044099174736212</v>
       </c>
       <c r="L25">
-        <v>1.033374860577333</v>
+        <v>1.049380029687406</v>
       </c>
       <c r="M25">
-        <v>1.039463993318192</v>
+        <v>1.060694425827881</v>
       </c>
       <c r="N25">
-        <v>1.033133390530494</v>
+        <v>1.044431316163319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038550885001746</v>
+        <v>1.013118578427861</v>
       </c>
       <c r="D2">
-        <v>1.041959221025497</v>
+        <v>1.02839200968772</v>
       </c>
       <c r="E2">
-        <v>1.047458027391036</v>
+        <v>1.026033388693694</v>
       </c>
       <c r="F2">
-        <v>1.059024497997742</v>
+        <v>1.033112169885515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040383642019615</v>
+        <v>1.047800516643761</v>
       </c>
       <c r="J2">
-        <v>1.043647710921769</v>
+        <v>1.034913871837649</v>
       </c>
       <c r="K2">
-        <v>1.044737261897528</v>
+        <v>1.039469477102189</v>
       </c>
       <c r="L2">
-        <v>1.050220609375033</v>
+        <v>1.037141570610696</v>
       </c>
       <c r="M2">
-        <v>1.061755130604798</v>
+        <v>1.044128696909543</v>
       </c>
       <c r="N2">
-        <v>1.045129810379344</v>
+        <v>1.036383568241945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039411902332398</v>
+        <v>1.017168652738286</v>
       </c>
       <c r="D3">
-        <v>1.042610888768261</v>
+        <v>1.031362075371802</v>
       </c>
       <c r="E3">
-        <v>1.048257099019398</v>
+        <v>1.02953519677313</v>
       </c>
       <c r="F3">
-        <v>1.059982196274657</v>
+        <v>1.03725179854155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040590834075739</v>
+        <v>1.048987826339322</v>
       </c>
       <c r="J3">
-        <v>1.044154011343644</v>
+        <v>1.037201978937776</v>
       </c>
       <c r="K3">
-        <v>1.045200080920532</v>
+        <v>1.041608802237324</v>
       </c>
       <c r="L3">
-        <v>1.050831562315867</v>
+        <v>1.039803617410575</v>
       </c>
       <c r="M3">
-        <v>1.062526613633087</v>
+        <v>1.047429229986069</v>
       </c>
       <c r="N3">
-        <v>1.045636829805891</v>
+        <v>1.038674924716598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039969622311174</v>
+        <v>1.019740357389587</v>
       </c>
       <c r="D4">
-        <v>1.043033014547638</v>
+        <v>1.033250654954035</v>
       </c>
       <c r="E4">
-        <v>1.048775086412755</v>
+        <v>1.031764351727022</v>
       </c>
       <c r="F4">
-        <v>1.060603117844128</v>
+        <v>1.039887094490458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040724028327045</v>
+        <v>1.049733706213448</v>
       </c>
       <c r="J4">
-        <v>1.044481545763754</v>
+        <v>1.03865223605887</v>
       </c>
       <c r="K4">
-        <v>1.045499322622235</v>
+        <v>1.04296367656411</v>
       </c>
       <c r="L4">
-        <v>1.051227167799729</v>
+        <v>1.041493947816993</v>
       </c>
       <c r="M4">
-        <v>1.063026415651969</v>
+        <v>1.049526820068298</v>
       </c>
       <c r="N4">
-        <v>1.045964829362446</v>
+        <v>1.04012724136915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040204226179406</v>
+        <v>1.02081015250752</v>
       </c>
       <c r="D5">
-        <v>1.043210583073931</v>
+        <v>1.034036874028748</v>
       </c>
       <c r="E5">
-        <v>1.048993070394696</v>
+        <v>1.03269296198866</v>
       </c>
       <c r="F5">
-        <v>1.060864445246245</v>
+        <v>1.040984938880974</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040779813559424</v>
+        <v>1.05004202395112</v>
       </c>
       <c r="J5">
-        <v>1.044619221916631</v>
+        <v>1.039254863501007</v>
       </c>
       <c r="K5">
-        <v>1.045625066836298</v>
+        <v>1.043526401716454</v>
       </c>
       <c r="L5">
-        <v>1.05139354559542</v>
+        <v>1.042197073589097</v>
       </c>
       <c r="M5">
-        <v>1.063236674773808</v>
+        <v>1.050399802793536</v>
       </c>
       <c r="N5">
-        <v>1.046102701031252</v>
+        <v>1.040730724611378</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040243625273822</v>
+        <v>1.020989120802759</v>
       </c>
       <c r="D6">
-        <v>1.043240403828728</v>
+        <v>1.034168436050713</v>
       </c>
       <c r="E6">
-        <v>1.049029683838958</v>
+        <v>1.032848387417846</v>
       </c>
       <c r="F6">
-        <v>1.060908340338797</v>
+        <v>1.041168692919318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040789167833247</v>
+        <v>1.050093487084325</v>
       </c>
       <c r="J6">
-        <v>1.044642337181775</v>
+        <v>1.039355638729542</v>
       </c>
       <c r="K6">
-        <v>1.045646176466507</v>
+        <v>1.043620488247866</v>
       </c>
       <c r="L6">
-        <v>1.051421484947311</v>
+        <v>1.042314698489131</v>
       </c>
       <c r="M6">
-        <v>1.063271986509462</v>
+        <v>1.050545869480519</v>
       </c>
       <c r="N6">
-        <v>1.046125849122724</v>
+        <v>1.040831642952296</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039972756557599</v>
+        <v>1.019754696157982</v>
       </c>
       <c r="D7">
-        <v>1.043035386809198</v>
+        <v>1.033261190577502</v>
       </c>
       <c r="E7">
-        <v>1.048777998254852</v>
+        <v>1.031776793014249</v>
       </c>
       <c r="F7">
-        <v>1.060606608568546</v>
+        <v>1.039901802931095</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040724774556585</v>
+        <v>1.049737846457319</v>
       </c>
       <c r="J7">
-        <v>1.044483385476614</v>
+        <v>1.03866031588901</v>
       </c>
       <c r="K7">
-        <v>1.045501003048016</v>
+        <v>1.042971222466156</v>
       </c>
       <c r="L7">
-        <v>1.051229390693245</v>
+        <v>1.041503372162995</v>
       </c>
       <c r="M7">
-        <v>1.06302922458718</v>
+        <v>1.049538519306138</v>
       </c>
       <c r="N7">
-        <v>1.04596667168791</v>
+        <v>1.040135332673576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038841747995815</v>
+        <v>1.014497688054864</v>
       </c>
       <c r="D8">
-        <v>1.042179360370559</v>
+        <v>1.029402778133778</v>
       </c>
       <c r="E8">
-        <v>1.047727882867548</v>
+        <v>1.027224617306158</v>
       </c>
       <c r="F8">
-        <v>1.059347901579132</v>
+        <v>1.03452035411511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040453843876437</v>
+        <v>1.048206476981332</v>
       </c>
       <c r="J8">
-        <v>1.043818832513397</v>
+        <v>1.035693541655489</v>
       </c>
       <c r="K8">
-        <v>1.044893721319769</v>
+        <v>1.040198671272641</v>
       </c>
       <c r="L8">
-        <v>1.050427025408687</v>
+        <v>1.038048021419703</v>
       </c>
       <c r="M8">
-        <v>1.062015731576987</v>
+        <v>1.045252178342502</v>
       </c>
       <c r="N8">
-        <v>1.045301174983259</v>
+        <v>1.03716434528035</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036853305588825</v>
+        <v>1.00484155924261</v>
       </c>
       <c r="D9">
-        <v>1.040674475766044</v>
+        <v>1.022338697629845</v>
       </c>
       <c r="E9">
-        <v>1.045884677198996</v>
+        <v>1.018908868112321</v>
       </c>
       <c r="F9">
-        <v>1.0571393701919</v>
+        <v>1.02468988878529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039969773805326</v>
+        <v>1.045331345705909</v>
       </c>
       <c r="J9">
-        <v>1.042647276385409</v>
+        <v>1.03022450041381</v>
       </c>
       <c r="K9">
-        <v>1.043821879827038</v>
+        <v>1.035079451398276</v>
       </c>
       <c r="L9">
-        <v>1.04901534350123</v>
+        <v>1.031702434554192</v>
       </c>
       <c r="M9">
-        <v>1.060234496357663</v>
+        <v>1.037394699242476</v>
       </c>
       <c r="N9">
-        <v>1.044127955111191</v>
+        <v>1.031687537372799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035530816401335</v>
+        <v>0.9981141842755162</v>
       </c>
       <c r="D10">
-        <v>1.039673699568495</v>
+        <v>1.017435790487502</v>
       </c>
       <c r="E10">
-        <v>1.044660835036937</v>
+        <v>1.013148398355699</v>
       </c>
       <c r="F10">
-        <v>1.055673485694443</v>
+        <v>1.017879109891821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039642625287893</v>
+        <v>1.043288145437385</v>
       </c>
       <c r="J10">
-        <v>1.041865952927199</v>
+        <v>1.02640282323049</v>
       </c>
       <c r="K10">
-        <v>1.043106223592916</v>
+        <v>1.031497214229896</v>
       </c>
       <c r="L10">
-        <v>1.048075772207779</v>
+        <v>1.02728424428812</v>
       </c>
       <c r="M10">
-        <v>1.059050235073165</v>
+        <v>1.031932884579339</v>
       </c>
       <c r="N10">
-        <v>1.04334552208405</v>
+        <v>1.027860432969527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034958926781765</v>
+        <v>0.9951261581488495</v>
       </c>
       <c r="D11">
-        <v>1.039240961341359</v>
+        <v>1.015263226890643</v>
       </c>
       <c r="E11">
-        <v>1.044132095628839</v>
+        <v>1.010598181446795</v>
       </c>
       <c r="F11">
-        <v>1.055040297482303</v>
+        <v>1.014863396784021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039499922753049</v>
+        <v>1.042371588977142</v>
       </c>
       <c r="J11">
-        <v>1.041527578017944</v>
+        <v>1.02470310972745</v>
       </c>
       <c r="K11">
-        <v>1.042796091550279</v>
+        <v>1.029902929349658</v>
       </c>
       <c r="L11">
-        <v>1.047669311656994</v>
+        <v>1.02532296146225</v>
       </c>
       <c r="M11">
-        <v>1.058538221563895</v>
+        <v>1.029510351176378</v>
       </c>
       <c r="N11">
-        <v>1.043006666643612</v>
+        <v>1.026158305678352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034746616685243</v>
+        <v>0.9940044322464665</v>
       </c>
       <c r="D12">
-        <v>1.039080315577475</v>
+        <v>1.0144484605396</v>
       </c>
       <c r="E12">
-        <v>1.043935879092734</v>
+        <v>1.009642111849778</v>
       </c>
       <c r="F12">
-        <v>1.054805337697387</v>
+        <v>1.013732712965114</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039446760322833</v>
+        <v>1.042026188337863</v>
       </c>
       <c r="J12">
-        <v>1.041401883159484</v>
+        <v>1.024064720757137</v>
       </c>
       <c r="K12">
-        <v>1.042680858597131</v>
+        <v>1.029303988933926</v>
       </c>
       <c r="L12">
-        <v>1.047518392531552</v>
+        <v>1.024586886649513</v>
       </c>
       <c r="M12">
-        <v>1.058348155563379</v>
+        <v>1.028601461765922</v>
       </c>
       <c r="N12">
-        <v>1.042880793284036</v>
+        <v>1.025519010122477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034792152686536</v>
+        <v>0.9942455915520366</v>
       </c>
       <c r="D13">
-        <v>1.039114770427435</v>
+        <v>1.014623588270778</v>
       </c>
       <c r="E13">
-        <v>1.043977959996093</v>
+        <v>1.009847597307186</v>
       </c>
       <c r="F13">
-        <v>1.054855726729089</v>
+        <v>1.013975732738241</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039458170909433</v>
+        <v>1.042100504783749</v>
       </c>
       <c r="J13">
-        <v>1.041428845447205</v>
+        <v>1.024201980832553</v>
       </c>
       <c r="K13">
-        <v>1.042705578071556</v>
+        <v>1.029432773726352</v>
       </c>
       <c r="L13">
-        <v>1.047550762531281</v>
+        <v>1.024745125121372</v>
       </c>
       <c r="M13">
-        <v>1.058388919973837</v>
+        <v>1.028796838122784</v>
       </c>
       <c r="N13">
-        <v>1.042907793861298</v>
+        <v>1.025656465122945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034941374805077</v>
+        <v>0.9950336808756751</v>
       </c>
       <c r="D14">
-        <v>1.039227680416179</v>
+        <v>1.015196038736899</v>
       </c>
       <c r="E14">
-        <v>1.044115872610268</v>
+        <v>1.010519334508566</v>
       </c>
       <c r="F14">
-        <v>1.055020870839283</v>
+        <v>1.014770151626113</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039495531515782</v>
+        <v>1.042343140051618</v>
       </c>
       <c r="J14">
-        <v>1.041517188184938</v>
+        <v>1.024650485664836</v>
       </c>
       <c r="K14">
-        <v>1.0427865670881</v>
+        <v>1.02985356009923</v>
       </c>
       <c r="L14">
-        <v>1.047656835435559</v>
+        <v>1.025262273626027</v>
       </c>
       <c r="M14">
-        <v>1.058522508220552</v>
+        <v>1.029435409217976</v>
       </c>
       <c r="N14">
-        <v>1.042996262055851</v>
+        <v>1.026105606883533</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035033330782124</v>
+        <v>0.995517662227782</v>
       </c>
       <c r="D15">
-        <v>1.039297260291242</v>
+        <v>1.015547703248883</v>
       </c>
       <c r="E15">
-        <v>1.044200869134774</v>
+        <v>1.010932034548933</v>
       </c>
       <c r="F15">
-        <v>1.055122652702422</v>
+        <v>1.015258210456351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039518529919486</v>
+        <v>1.042491974439497</v>
       </c>
       <c r="J15">
-        <v>1.041571618122179</v>
+        <v>1.024925882381142</v>
       </c>
       <c r="K15">
-        <v>1.042836462345392</v>
+        <v>1.030111917446761</v>
       </c>
       <c r="L15">
-        <v>1.047722198233774</v>
+        <v>1.025579893007563</v>
       </c>
       <c r="M15">
-        <v>1.05860483211113</v>
+        <v>1.029827641729307</v>
       </c>
       <c r="N15">
-        <v>1.043050769289847</v>
+        <v>1.026381394694765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03556878690331</v>
+        <v>0.9983108613012207</v>
       </c>
       <c r="D16">
-        <v>1.039702431857219</v>
+        <v>1.017578904064319</v>
       </c>
       <c r="E16">
-        <v>1.044695950995146</v>
+        <v>1.013316435935202</v>
       </c>
       <c r="F16">
-        <v>1.055715541102799</v>
+        <v>1.01807780698949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0396520740226</v>
+        <v>1.043348289424159</v>
       </c>
       <c r="J16">
-        <v>1.041888408660572</v>
+        <v>1.026514656919653</v>
       </c>
       <c r="K16">
-        <v>1.043126800907305</v>
+        <v>1.031602089911428</v>
       </c>
       <c r="L16">
-        <v>1.048102755775715</v>
+        <v>1.027413365498395</v>
       </c>
       <c r="M16">
-        <v>1.059084232274436</v>
+        <v>1.032092413647186</v>
       </c>
       <c r="N16">
-        <v>1.04336800970714</v>
+        <v>1.027972425475356</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035904868055733</v>
+        <v>1.000042484156351</v>
       </c>
       <c r="D17">
-        <v>1.039956748286822</v>
+        <v>1.018839522533041</v>
       </c>
       <c r="E17">
-        <v>1.045006823177405</v>
+        <v>1.014796862693831</v>
       </c>
       <c r="F17">
-        <v>1.05608786037891</v>
+        <v>1.019828285473548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039735563377356</v>
+        <v>1.043876794315972</v>
       </c>
       <c r="J17">
-        <v>1.042087108640041</v>
+        <v>1.027499029858722</v>
       </c>
       <c r="K17">
-        <v>1.043308857007616</v>
+        <v>1.032525097796883</v>
       </c>
       <c r="L17">
-        <v>1.048341572146026</v>
+        <v>1.028550329815028</v>
       </c>
       <c r="M17">
-        <v>1.059385157076463</v>
+        <v>1.033497361125761</v>
       </c>
       <c r="N17">
-        <v>1.043566991863373</v>
+        <v>1.028958196336907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036100971440642</v>
+        <v>1.001045311485507</v>
       </c>
       <c r="D18">
-        <v>1.04010514496847</v>
+        <v>1.019570060348916</v>
       </c>
       <c r="E18">
-        <v>1.045188264590474</v>
+        <v>1.015655006255693</v>
       </c>
       <c r="F18">
-        <v>1.056305177297146</v>
+        <v>1.020842919784377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03978416042752</v>
+        <v>1.044182002288884</v>
       </c>
       <c r="J18">
-        <v>1.042203001427669</v>
+        <v>1.028068886293857</v>
       </c>
       <c r="K18">
-        <v>1.043415023226667</v>
+        <v>1.03305932807828</v>
       </c>
       <c r="L18">
-        <v>1.04848090627167</v>
+        <v>1.029208876688827</v>
       </c>
       <c r="M18">
-        <v>1.059560756525535</v>
+        <v>1.034311321148501</v>
       </c>
       <c r="N18">
-        <v>1.043683049232051</v>
+        <v>1.029528862033545</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036167849954015</v>
+        <v>1.00138604528474</v>
       </c>
       <c r="D19">
-        <v>1.040155754224866</v>
+        <v>1.019818357310728</v>
       </c>
       <c r="E19">
-        <v>1.04525015086599</v>
+        <v>1.015946713143478</v>
       </c>
       <c r="F19">
-        <v>1.056379302035986</v>
+        <v>1.021187814901416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039800713635233</v>
+        <v>1.044285556215451</v>
       </c>
       <c r="J19">
-        <v>1.042242516896682</v>
+        <v>1.028262469909587</v>
       </c>
       <c r="K19">
-        <v>1.04345121905296</v>
+        <v>1.033240791701996</v>
       </c>
       <c r="L19">
-        <v>1.048528421771586</v>
+        <v>1.029432649312165</v>
       </c>
       <c r="M19">
-        <v>1.059620644092637</v>
+        <v>1.034587935868901</v>
       </c>
       <c r="N19">
-        <v>1.043722620817563</v>
+        <v>1.029722720560212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035868802174251</v>
+        <v>0.9998574460282448</v>
       </c>
       <c r="D20">
-        <v>1.039929456507693</v>
+        <v>1.018704764746674</v>
       </c>
       <c r="E20">
-        <v>1.044973457634509</v>
+        <v>1.014638584640961</v>
       </c>
       <c r="F20">
-        <v>1.056047898580294</v>
+        <v>1.019641140236811</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039726616189282</v>
+        <v>1.043820408430677</v>
       </c>
       <c r="J20">
-        <v>1.042065790578222</v>
+        <v>1.02739386399815</v>
       </c>
       <c r="K20">
-        <v>1.043289326587417</v>
+        <v>1.032426498373415</v>
       </c>
       <c r="L20">
-        <v>1.048315945616687</v>
+        <v>1.028428825022559</v>
       </c>
       <c r="M20">
-        <v>1.05935286291393</v>
+        <v>1.033347197610916</v>
       </c>
       <c r="N20">
-        <v>1.04354564352746</v>
+        <v>1.028852881128751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034897429419448</v>
+        <v>0.9948019397919164</v>
       </c>
       <c r="D21">
-        <v>1.039194428672386</v>
+        <v>1.015027683858279</v>
       </c>
       <c r="E21">
-        <v>1.04407525577763</v>
+        <v>1.010321771117415</v>
       </c>
       <c r="F21">
-        <v>1.054972233527472</v>
+        <v>1.014536509524369</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039484534059293</v>
+        <v>1.042271828075386</v>
       </c>
       <c r="J21">
-        <v>1.041491173644107</v>
+        <v>1.024518608949113</v>
       </c>
       <c r="K21">
-        <v>1.042762718828481</v>
+        <v>1.029729837630323</v>
       </c>
       <c r="L21">
-        <v>1.047625597985683</v>
+        <v>1.025110197910235</v>
       </c>
       <c r="M21">
-        <v>1.058483166525006</v>
+        <v>1.029247619253657</v>
       </c>
       <c r="N21">
-        <v>1.042970210571389</v>
+        <v>1.025973542887748</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034287355884106</v>
+        <v>0.9915545325044918</v>
       </c>
       <c r="D22">
-        <v>1.038732823391668</v>
+        <v>1.012670568546087</v>
       </c>
       <c r="E22">
-        <v>1.0435115676386</v>
+        <v>1.007556453336379</v>
       </c>
       <c r="F22">
-        <v>1.054297277872092</v>
+        <v>1.011265922539758</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039331423120282</v>
+        <v>1.041269439993</v>
       </c>
       <c r="J22">
-        <v>1.041129847219045</v>
+        <v>1.022669933771649</v>
       </c>
       <c r="K22">
-        <v>1.042431411328752</v>
+        <v>1.027995129648847</v>
       </c>
       <c r="L22">
-        <v>1.047191887692833</v>
+        <v>1.022979687131818</v>
       </c>
       <c r="M22">
-        <v>1.057937040902904</v>
+        <v>1.026617454961138</v>
       </c>
       <c r="N22">
-        <v>1.042608371021359</v>
+        <v>1.024122242379486</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.034610703691659</v>
+        <v>0.9932827659431768</v>
       </c>
       <c r="D23">
-        <v>1.038977477732299</v>
+        <v>1.013924519317898</v>
       </c>
       <c r="E23">
-        <v>1.043810289577095</v>
+        <v>1.009027393147854</v>
       </c>
       <c r="F23">
-        <v>1.054654955369389</v>
+        <v>1.013005692059846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039412675623546</v>
+        <v>1.041803607217469</v>
       </c>
       <c r="J23">
-        <v>1.041321396780063</v>
+        <v>1.023653929997855</v>
       </c>
       <c r="K23">
-        <v>1.042607063052827</v>
+        <v>1.028918541945811</v>
       </c>
       <c r="L23">
-        <v>1.047421773180317</v>
+        <v>1.024113393036125</v>
       </c>
       <c r="M23">
-        <v>1.058226486801495</v>
+        <v>1.028016883526746</v>
       </c>
       <c r="N23">
-        <v>1.042800192604724</v>
+        <v>1.025107635993199</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03588509856846</v>
+        <v>0.9999410789994317</v>
       </c>
       <c r="D24">
-        <v>1.039941788308268</v>
+        <v>1.018765670674715</v>
       </c>
       <c r="E24">
-        <v>1.044988533732238</v>
+        <v>1.014710120228245</v>
       </c>
       <c r="F24">
-        <v>1.056065955135585</v>
+        <v>1.019725722824843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039730659350218</v>
+        <v>1.043845896229308</v>
       </c>
       <c r="J24">
-        <v>1.042075423310015</v>
+        <v>1.027441397226885</v>
       </c>
       <c r="K24">
-        <v>1.043298151618</v>
+        <v>1.032471063997468</v>
       </c>
       <c r="L24">
-        <v>1.048327525029354</v>
+        <v>1.028483742077733</v>
       </c>
       <c r="M24">
-        <v>1.059367455024012</v>
+        <v>1.033415067075041</v>
       </c>
       <c r="N24">
-        <v>1.043555289938837</v>
+        <v>1.028900481860123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03736681872841</v>
+        <v>1.007387009401596</v>
       </c>
       <c r="D25">
-        <v>1.041063094515514</v>
+        <v>1.024197867371804</v>
       </c>
       <c r="E25">
-        <v>1.046360322803875</v>
+        <v>1.021095429844333</v>
       </c>
       <c r="F25">
-        <v>1.057709195626519</v>
+        <v>1.027274827582982</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040095702161124</v>
+        <v>1.046096333755874</v>
       </c>
       <c r="J25">
-        <v>1.042950207240976</v>
+        <v>1.031668303205933</v>
       </c>
       <c r="K25">
-        <v>1.044099174736212</v>
+        <v>1.036431806780161</v>
       </c>
       <c r="L25">
-        <v>1.049380029687406</v>
+        <v>1.033374860577333</v>
       </c>
       <c r="M25">
-        <v>1.060694425827881</v>
+        <v>1.039463993318192</v>
       </c>
       <c r="N25">
-        <v>1.044431316163319</v>
+        <v>1.033133390530494</v>
       </c>
     </row>
   </sheetData>
